--- a/CompareSelectivityPredictions/OUTPUT/SelWin_EvaluationResults.xlsx
+++ b/CompareSelectivityPredictions/OUTPUT/SelWin_EvaluationResults.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>474.2</v>
+        <v>474.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4472135954999579</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="E2" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="F2" t="n">
-        <v>1.816590212458495</v>
+        <v>1.673320053068151</v>
       </c>
       <c r="G2" t="n">
         <v>137.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.788854381999832</v>
+        <v>1.30384048104053</v>
       </c>
     </row>
     <row r="3">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>642</v>
+        <v>640.8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.06201920231798</v>
+        <v>2.949576240750525</v>
       </c>
       <c r="E3" t="n">
         <v>1846</v>
@@ -525,10 +525,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1616.8</v>
+        <v>1615.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.16794833886788</v>
+        <v>2.607680962081059</v>
       </c>
     </row>
     <row r="4">
@@ -541,10 +541,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>736</v>
+        <v>737.2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.06201920231798</v>
+        <v>2.949576240750525</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.16794833886788</v>
+        <v>2.60768096208106</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57.8</v>
+        <v>57.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4472135954999579</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="E5" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1.816590212458495</v>
+        <v>1.673320053068151</v>
       </c>
       <c r="G5" t="n">
         <v>129.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.788854381999832</v>
+        <v>1.30384048104053</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5843979057591623</v>
+        <v>0.5839790575916231</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002202689420729093</v>
+        <v>0.001365277990618352</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9829319371727749</v>
+        <v>0.9830366492146597</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000951094352072524</v>
+        <v>0.0008760837974178931</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9186387434554973</v>
+        <v>0.9179057591623035</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001596644050468819</v>
+        <v>0.002041213475352671</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3918395712642881</v>
+        <v>0.3916500235535298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00138893859822659</v>
+        <v>0.0008461597428511751</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9125919913419913</v>
+        <v>0.91312675070028</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004705132477514987</v>
+        <v>0.004345977248282717</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8403324270867187</v>
+        <v>0.8332249242368246</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01161734840601982</v>
+        <v>0.01458555422028938</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8913533834586465</v>
+        <v>0.8921052631578947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0008406270592104782</v>
+        <v>0.0021431868892841</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5147540983606558</v>
+        <v>0.5180327868852459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02978016741735241</v>
+        <v>0.02743147627980579</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5161048689138577</v>
+        <v>0.5161048689138578</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006699829146066767</v>
+        <v>0.004883297681799702</v>
       </c>
     </row>
     <row r="9">
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.46588</v>
+        <v>0.46502</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002948219801846538</v>
+        <v>0.002146392322013859</v>
       </c>
       <c r="E9" t="n">
         <v>0.9984</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.98408</v>
+        <v>0.9831799999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001300769003320728</v>
+        <v>0.001605303709582722</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5443715927835695</v>
+        <v>0.544328841414436</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001265575317589489</v>
+        <v>0.0008573098736156371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6578890390507256</v>
+        <v>0.6607557803721141</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02301029503554741</v>
+        <v>0.02121369573065251</v>
       </c>
       <c r="G10" t="n">
-        <v>0.639439567838193</v>
+        <v>0.6373919114882648</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00625397768757432</v>
+        <v>0.007114033054068973</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5811643786469258</v>
+        <v>0.5808040520982882</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001852194435805242</v>
+        <v>0.001135203716039515</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8245683049628141</v>
+        <v>0.8260282762928481</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01172131127861175</v>
+        <v>0.01080595302391799</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7967926042017772</v>
+        <v>0.7955525469269736</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003511962472066666</v>
+        <v>0.004079185970630149</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6786229907133583</v>
+        <v>0.6785635169200213</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00164012545531355</v>
+        <v>0.001096567310786279</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7565657998563691</v>
+        <v>0.7582051441186641</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0148900837086762</v>
+        <v>0.01371573813990289</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7500792147369045</v>
+        <v>0.749653164828201</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003529170997688846</v>
+        <v>0.003226402254221159</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3323782550831965</v>
+        <v>0.3324302143388934</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00268348566197815</v>
+        <v>0.00197958409676754</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6781834851452174</v>
+        <v>0.6806181521845197</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02191009818865198</v>
+        <v>0.02019583950181272</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6190910885283787</v>
+        <v>0.6156726767383767</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008145595469168014</v>
+        <v>0.01019437539107614</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9174</v>
+        <v>0.9178000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0008660254037844202</v>
+        <v>0.00137295302177457</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98424</v>
+        <v>0.9843400000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0009528903399657166</v>
+        <v>0.0008792041856133291</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9259999999999999</v>
+        <v>0.9259599999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009565563234854313</v>
+        <v>0.0007797435475847281</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6786229907133581</v>
+        <v>0.6785635169200213</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001640125455313535</v>
+        <v>0.001096567310786345</v>
       </c>
       <c r="E15" t="n">
-        <v>0.756565799856369</v>
+        <v>0.758205144118664</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01489008370867622</v>
+        <v>0.01371573813990293</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7500792147369044</v>
+        <v>0.749653164828201</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003529170997688933</v>
+        <v>0.00322640225422111</v>
       </c>
     </row>
   </sheetData>
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>459.4</v>
+        <v>447.6</v>
       </c>
       <c r="D2" t="n">
-        <v>6.107372593840988</v>
+        <v>4.277849927241488</v>
       </c>
       <c r="E2" t="n">
-        <v>33.8</v>
+        <v>35.8</v>
       </c>
       <c r="F2" t="n">
-        <v>1.923538406167134</v>
+        <v>1.788854381999832</v>
       </c>
       <c r="G2" t="n">
-        <v>148.4</v>
+        <v>159.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.286335345030996</v>
+        <v>2.880972058177587</v>
       </c>
     </row>
     <row r="3">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>733.2</v>
+        <v>751.2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.167204273105526</v>
+        <v>8.07465169527454</v>
       </c>
       <c r="E3" t="n">
-        <v>1845.2</v>
+        <v>1842.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8366600265340756</v>
+        <v>2.509980079602226</v>
       </c>
       <c r="G3" t="n">
-        <v>1600.2</v>
+        <v>1593.8</v>
       </c>
       <c r="H3" t="n">
-        <v>5.932958789676531</v>
+        <v>5.540758070878027</v>
       </c>
     </row>
     <row r="4">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>644.8</v>
+        <v>626.8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.167204273105526</v>
+        <v>8.07465169527454</v>
       </c>
       <c r="E4" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8366600265340756</v>
+        <v>2.509980079602227</v>
       </c>
       <c r="G4" t="n">
-        <v>42.8</v>
+        <v>49.2</v>
       </c>
       <c r="H4" t="n">
-        <v>5.932958789676531</v>
+        <v>5.540758070878027</v>
       </c>
     </row>
     <row r="5">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>6.107372593840988</v>
+        <v>4.277849927241487</v>
       </c>
       <c r="E5" t="n">
-        <v>27.2</v>
+        <v>25.2</v>
       </c>
       <c r="F5" t="n">
-        <v>1.923538406167135</v>
+        <v>1.788854381999832</v>
       </c>
       <c r="G5" t="n">
-        <v>118.6</v>
+        <v>107.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.286335345030996</v>
+        <v>2.880972058177587</v>
       </c>
     </row>
     <row r="6">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6243979057591622</v>
+        <v>0.6276439790575916</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002975554395472839</v>
+        <v>0.002074514424728677</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9837696335078533</v>
+        <v>0.9833507853403141</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0009068328835439349</v>
+        <v>0.001499248278877129</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9154973821989529</v>
+        <v>0.9179057591623037</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00394585207987787</v>
+        <v>0.004178653390415675</v>
       </c>
     </row>
     <row r="7">
@@ -1073,22 +1073,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4160389247584648</v>
+        <v>0.4166120313794311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00282650659292519</v>
+        <v>0.0009494016649396338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8993569098447148</v>
+        <v>0.8466986423305938</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01820815571923855</v>
+        <v>0.05009138853067124</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7766333348631231</v>
+        <v>0.7644164280307848</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02514479512255962</v>
+        <v>0.02293895032988747</v>
       </c>
     </row>
     <row r="8">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.863533834586466</v>
+        <v>0.8413533834586465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01148002367263343</v>
+        <v>0.008041071291807327</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5540983606557377</v>
+        <v>0.5868852459016394</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03153341649454317</v>
+        <v>0.02932548167212838</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5558052434456929</v>
+        <v>0.5970037453183521</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01230837207876776</v>
+        <v>0.0107901575212644</v>
       </c>
     </row>
     <row r="9">
@@ -1129,22 +1129,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.53208</v>
+        <v>0.54514</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003765235716392794</v>
+        <v>0.0058380647478424</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99794</v>
+        <v>0.99644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004669047011971367</v>
+        <v>0.001366747965061565</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9739599999999999</v>
+        <v>0.97004</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003600416642556784</v>
+        <v>0.003372387878047235</v>
       </c>
     </row>
     <row r="10">
@@ -1157,22 +1157,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5615292318803166</v>
+        <v>0.5572646923936113</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004255963865582995</v>
+        <v>0.001092991778960045</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6852011216857878</v>
+        <v>0.6924372041289694</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02142314376186221</v>
+        <v>0.02364788788767883</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6477972889059823</v>
+        <v>0.6703737473504614</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01281648359460567</v>
+        <v>0.01338261975764682</v>
       </c>
     </row>
     <row r="11">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6165078878137293</v>
+        <v>0.6179812218878633</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002869674736026046</v>
+        <v>0.001238901022583965</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8384355469284588</v>
+        <v>0.8419404059546395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01091306987144623</v>
+        <v>0.01214623283599351</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7998927235217579</v>
+        <v>0.8117438765453595</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007394143781497177</v>
+        <v>0.007767738650463533</v>
       </c>
     </row>
     <row r="12">
@@ -1213,22 +1213,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6978046531422897</v>
+        <v>0.6932456322227921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005064843700759323</v>
+        <v>0.001275765266060582</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7760215978508542</v>
+        <v>0.7916578744381102</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01566962466047748</v>
+        <v>0.01457995781824221</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7648776673710509</v>
+        <v>0.7835292615818783</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006876681207029055</v>
+        <v>0.006784271178597369</v>
       </c>
     </row>
     <row r="13">
@@ -1241,22 +1241,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3591197157112632</v>
+        <v>0.3492784624264841</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009586553300855956</v>
+        <v>0.002805351330010851</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6986339424510802</v>
+        <v>0.6967495749355963</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02057326837182074</v>
+        <v>0.02803294319873869</v>
       </c>
       <c r="G13" t="n">
-        <v>0.612220658882195</v>
+        <v>0.6305443958936283</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01760952189488384</v>
+        <v>0.01820000637822944</v>
       </c>
     </row>
     <row r="14">
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.90994</v>
+        <v>0.8990199999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006532457424277631</v>
+        <v>0.003669741135284603</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9854800000000001</v>
+        <v>0.9865</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0009984988733093433</v>
+        <v>0.0009643650760993102</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9309799999999999</v>
+        <v>0.9367599999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001845806056984329</v>
+        <v>0.001747283606058254</v>
       </c>
     </row>
     <row r="15">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6978046531422897</v>
+        <v>0.6932456322227921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005064843700759239</v>
+        <v>0.001275765266060582</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7760215978508542</v>
+        <v>0.7916578744381101</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01566962466047747</v>
+        <v>0.01457995781824225</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7648776673710509</v>
+        <v>0.7835292615818783</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006876681207029089</v>
+        <v>0.006784271178597332</v>
       </c>
     </row>
   </sheetData>
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>463.6</v>
+        <v>455.8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.049590136395381</v>
+        <v>3.03315017762062</v>
       </c>
       <c r="E2" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>1.949358868961793</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>151.2</v>
+        <v>158</v>
       </c>
       <c r="H2" t="n">
-        <v>3.03315017762062</v>
+        <v>3.464101615137754</v>
       </c>
     </row>
     <row r="3">
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>726</v>
+        <v>732.8</v>
       </c>
       <c r="D3" t="n">
-        <v>5.958187643906492</v>
+        <v>5.449770637375485</v>
       </c>
       <c r="E3" t="n">
-        <v>1845.2</v>
+        <v>1844.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8366600265340756</v>
+        <v>0.8944271909999159</v>
       </c>
       <c r="G3" t="n">
-        <v>1603.6</v>
+        <v>1596.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.701851217221259</v>
+        <v>1.673320053068151</v>
       </c>
     </row>
     <row r="4">
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>652</v>
+        <v>645.2</v>
       </c>
       <c r="D4" t="n">
-        <v>5.958187643906492</v>
+        <v>5.449770637375485</v>
       </c>
       <c r="E4" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8366600265340756</v>
+        <v>0.8944271909999159</v>
       </c>
       <c r="G4" t="n">
-        <v>39.4</v>
+        <v>46.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.701851217221259</v>
+        <v>1.673320053068151</v>
       </c>
     </row>
     <row r="5">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.049590136395381</v>
+        <v>3.03315017762062</v>
       </c>
       <c r="E5" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>1.949358868961793</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>115.8</v>
+        <v>109</v>
       </c>
       <c r="H5" t="n">
-        <v>3.03315017762062</v>
+        <v>3.464101615137754</v>
       </c>
     </row>
     <row r="6">
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6228272251308901</v>
+        <v>0.6223036649214659</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001759972388897564</v>
+        <v>0.004031753572393427</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9835602094240837</v>
+        <v>0.9829319371727749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001365277990618361</v>
+        <v>0.00141458178912109</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9187434554973821</v>
+        <v>0.9186387434554973</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00232380534253111</v>
+        <v>0.001639002706020779</v>
       </c>
     </row>
     <row r="7">
@@ -1521,22 +1521,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4155652782876497</v>
+        <v>0.4139929920722846</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009690254377786551</v>
+        <v>0.003294136197136682</v>
       </c>
       <c r="E7" t="n">
-        <v>0.897430686904371</v>
+        <v>0.877237966711651</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02526783669047537</v>
+        <v>0.02649129643637806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7933510652188318</v>
+        <v>0.7730104485363268</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01241726169610558</v>
+        <v>0.005754053615551167</v>
       </c>
     </row>
     <row r="8">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8714285714285713</v>
+        <v>0.8567669172932331</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005732312286457455</v>
+        <v>0.005701410108309432</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5475409836065573</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03195670276986545</v>
+        <v>0.03278688524590162</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5662921348314607</v>
+        <v>0.5917602996254682</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0113601130247963</v>
+        <v>0.01297416335257584</v>
       </c>
     </row>
     <row r="9">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5268599999999999</v>
+        <v>0.5317999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004334512660034614</v>
+        <v>0.003945250308915764</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99794</v>
+        <v>0.9974999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004669047011971367</v>
+        <v>0.0004472135954999645</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9760199999999999</v>
+        <v>0.97176</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001669431040804013</v>
+        <v>0.001003992031840913</v>
       </c>
     </row>
     <row r="10">
@@ -1605,22 +1605,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.562755605413821</v>
+        <v>0.5582400657284461</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0009920076755804965</v>
+        <v>0.003661863874098598</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6799247577819006</v>
+        <v>0.6690438404665209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0277752530033165</v>
+        <v>0.02839211377849871</v>
       </c>
       <c r="G10" t="n">
-        <v>0.660814735772246</v>
+        <v>0.6702875342355764</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009274301864821012</v>
+        <v>0.007971500390063262</v>
       </c>
     </row>
     <row r="11">
@@ -1633,22 +1633,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6155659597479306</v>
+        <v>0.6141886817867637</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001234554643256483</v>
+        <v>0.003544937481676033</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8357440788888912</v>
+        <v>0.8301419400509455</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01419831812525861</v>
+        <v>0.01451783591828833</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8073286602933573</v>
+        <v>0.8119403360888097</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005202109502208114</v>
+        <v>0.004368652150936225</v>
       </c>
     </row>
     <row r="12">
@@ -1661,22 +1661,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6991395397055775</v>
+        <v>0.6942760566146862</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001210164077229846</v>
+        <v>0.004358154161180428</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7727429093262641</v>
+        <v>0.7692478876486182</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01613867762221968</v>
+        <v>0.01656335659195364</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7711558056993578</v>
+        <v>0.7817596385528436</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005895994784297169</v>
+        <v>0.006284273218534912</v>
       </c>
     </row>
     <row r="13">
@@ -1689,22 +1689,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3622535673572006</v>
+        <v>0.352503362154457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002571139531174563</v>
+        <v>0.007805586181912354</v>
       </c>
       <c r="E13" t="n">
-        <v>0.693795943426576</v>
+        <v>0.6813163154916198</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02975344111662163</v>
+        <v>0.030585212469769</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6274529246724039</v>
+        <v>0.6321125038374722</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01141199212832538</v>
+        <v>0.008856265682123053</v>
       </c>
     </row>
     <row r="14">
@@ -1717,22 +1717,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9138999999999999</v>
+        <v>0.9057999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002963106478005821</v>
+        <v>0.003816411927452275</v>
       </c>
       <c r="E14" t="n">
-        <v>0.98528</v>
+        <v>0.98506</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001018331969448062</v>
+        <v>0.001050238068249271</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9326399999999999</v>
+        <v>0.9360800000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001674216234540803</v>
+        <v>0.001905780679931437</v>
       </c>
     </row>
     <row r="15">
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6991395397055775</v>
+        <v>0.6942760566146862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001210164077229842</v>
+        <v>0.004358154161180493</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7727429093262641</v>
+        <v>0.7692478876486182</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01613867762221964</v>
+        <v>0.01656335659195364</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7711558056993579</v>
+        <v>0.7817596385528437</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005895994784297175</v>
+        <v>0.006284273218534864</v>
       </c>
     </row>
   </sheetData>
@@ -2725,22 +2725,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>479.2</v>
+        <v>476.8</v>
       </c>
       <c r="D2" t="n">
-        <v>6.220932405998316</v>
+        <v>7.52994023880668</v>
       </c>
       <c r="E2" t="n">
-        <v>34.2</v>
+        <v>34.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8366600265340756</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="G2" t="n">
-        <v>162.4</v>
+        <v>165.4</v>
       </c>
       <c r="H2" t="n">
-        <v>16.21110730332756</v>
+        <v>17.27136358253163</v>
       </c>
     </row>
     <row r="3">
@@ -2753,10 +2753,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>726.4</v>
+        <v>736.6</v>
       </c>
       <c r="D3" t="n">
-        <v>38.94611662284188</v>
+        <v>42.13430906043197</v>
       </c>
       <c r="E3" t="n">
         <v>1847</v>
@@ -2765,10 +2765,10 @@
         <v>0.7071067811865476</v>
       </c>
       <c r="G3" t="n">
-        <v>1617.6</v>
+        <v>1615.2</v>
       </c>
       <c r="H3" t="n">
-        <v>6.985699678629192</v>
+        <v>7.791020472312982</v>
       </c>
     </row>
     <row r="4">
@@ -2781,10 +2781,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>651.6</v>
+        <v>641.4</v>
       </c>
       <c r="D4" t="n">
-        <v>38.94611662284188</v>
+        <v>42.13430906043197</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -2793,10 +2793,10 @@
         <v>0.7071067811865476</v>
       </c>
       <c r="G4" t="n">
-        <v>25.4</v>
+        <v>27.8</v>
       </c>
       <c r="H4" t="n">
-        <v>6.985699678629192</v>
+        <v>7.791020472312982</v>
       </c>
     </row>
     <row r="5">
@@ -2809,22 +2809,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52.8</v>
+        <v>55.2</v>
       </c>
       <c r="D5" t="n">
-        <v>6.220932405998316</v>
+        <v>7.52994023880668</v>
       </c>
       <c r="E5" t="n">
-        <v>26.8</v>
+        <v>26.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8366600265340756</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="G5" t="n">
-        <v>104.6</v>
+        <v>101.6</v>
       </c>
       <c r="H5" t="n">
-        <v>16.21110730332756</v>
+        <v>17.27136358253163</v>
       </c>
     </row>
     <row r="6">
@@ -2837,22 +2837,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6312041884816754</v>
+        <v>0.6352879581151832</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01747703266775479</v>
+        <v>0.0185128698667469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9849214659685865</v>
+        <v>0.9851308900523561</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006826389953091782</v>
+        <v>0.0005969504843451043</v>
       </c>
       <c r="G6" t="n">
-        <v>0.931937172774869</v>
+        <v>0.9322513089005235</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005143163011620004</v>
+        <v>0.005204093671115869</v>
       </c>
     </row>
     <row r="7">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4241310932452206</v>
+        <v>0.4268191711705566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01153059324135377</v>
+        <v>0.01211302544204854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.944877734877735</v>
+        <v>0.9457093357093358</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01888777859963959</v>
+        <v>0.01749964421917739</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8667365479497893</v>
+        <v>0.8584663447106852</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02228741267754949</v>
+        <v>0.02430778886755816</v>
       </c>
     </row>
     <row r="8">
@@ -2893,22 +2893,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9007518796992482</v>
+        <v>0.8962406015037594</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01169348196616223</v>
+        <v>0.01415402300527569</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5606557377049179</v>
+        <v>0.5672131147540984</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01371573813990285</v>
+        <v>0.01869140041146126</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6082397003745319</v>
+        <v>0.6194756554307116</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06071575769036538</v>
+        <v>0.06468675499075519</v>
       </c>
     </row>
     <row r="9">
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5271600000000001</v>
+        <v>0.53454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02826779085814811</v>
+        <v>0.0305854213637805</v>
       </c>
       <c r="E9" t="n">
         <v>0.99892</v>
@@ -2933,10 +2933,10 @@
         <v>0.000389871773792394</v>
       </c>
       <c r="G9" t="n">
-        <v>0.98454</v>
+        <v>0.98308</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004272352981671813</v>
+        <v>0.004762562335550082</v>
       </c>
     </row>
     <row r="10">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5765572307052436</v>
+        <v>0.5780689306410751</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007836328514996401</v>
+        <v>0.007959487446403199</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7036687355354513</v>
+        <v>0.7088932253313697</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01265133119394559</v>
+        <v>0.01292011874217604</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7127546982888286</v>
+        <v>0.7172376306108318</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03165172879027181</v>
+        <v>0.03297418595065867</v>
       </c>
     </row>
     <row r="11">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6248262587673293</v>
+        <v>0.6282963161935602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01391521232942341</v>
+        <v>0.01465457743194602</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8479663170783365</v>
+        <v>0.850631892074</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006479459368266913</v>
+        <v>0.006591020729306258</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8370688535023794</v>
+        <v>0.8393692823793149</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01700421233726413</v>
+        <v>0.01767018431818116</v>
       </c>
     </row>
     <row r="12">
@@ -3005,22 +3005,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7139463317219027</v>
+        <v>0.7153917085893253</v>
       </c>
       <c r="D12" t="n">
-        <v>0.009133610361682525</v>
+        <v>0.009243509294519912</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7797870359698197</v>
+        <v>0.7830657244944099</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006940835310698103</v>
+        <v>0.009288186623743812</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7963900875579293</v>
+        <v>0.801277693813956</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02834672588084537</v>
+        <v>0.03005711491512779</v>
       </c>
     </row>
     <row r="13">
@@ -3033,22 +3033,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3905726489105079</v>
+        <v>0.3923317547822604</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01322392016291361</v>
+        <v>0.01318830371801167</v>
       </c>
       <c r="E13" t="n">
-        <v>0.721576396195649</v>
+        <v>0.7261190122036708</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01430907882043698</v>
+        <v>0.01284950883360098</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6904285598637384</v>
+        <v>0.6930779768112811</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02888699472197974</v>
+        <v>0.02970916803134739</v>
       </c>
     </row>
     <row r="14">
@@ -3061,22 +3061,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9324</v>
+        <v>0.9305199999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004503332099679087</v>
+        <v>0.005738640954093563</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9856999999999999</v>
+        <v>0.9859</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004183300132670315</v>
+        <v>0.0005700877125495792</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9393600000000001</v>
+        <v>0.94092</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00862455795968697</v>
+        <v>0.009169078470598892</v>
       </c>
     </row>
     <row r="15">
@@ -3089,22 +3089,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7139463317219026</v>
+        <v>0.7153917085893252</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009133610361682564</v>
+        <v>0.009243509294519885</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7797870359698197</v>
+        <v>0.7830657244944099</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006940835310698103</v>
+        <v>0.009288186623743779</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7963900875579293</v>
+        <v>0.801277693813956</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02834672588084541</v>
+        <v>0.03005711491512784</v>
       </c>
     </row>
   </sheetData>
